--- a/AzureOpenAILogProbs/Images/AzureOpenAILogProbs.xlsx
+++ b/AzureOpenAILogProbs/Images/AzureOpenAILogProbs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\source\repos\AzureOpenAILogProbs\AzureOpenAILogProbs\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F91D0F-4F96-45C9-AADD-78F0FA951515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F26ED3-0F34-4D6C-9227-495CFCBBB5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{024B4532-7F17-405B-A065-366127F25B57}"/>
   </bookViews>
@@ -18,12 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$9:$G$13</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$9:$H$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$9:$G$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$9:$H$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$9:$G$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$9:$H$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$9:$G$13</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$9:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,10 +103,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -157,9 +151,28 @@
                 <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
+              <a:t>Is there enough information to answer the following question:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Has Steve Cohen been the longest-serving owner of the Mets?</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1157,7 +1170,7 @@
   <dimension ref="G9:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/AzureOpenAILogProbs/Images/AzureOpenAILogProbs.xlsx
+++ b/AzureOpenAILogProbs/Images/AzureOpenAILogProbs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\source\repos\AzureOpenAILogProbs\AzureOpenAILogProbs\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bczernicki\source\repos\AzureOpenAILogProbs\AzureOpenAILogProbs\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F26ED3-0F34-4D6C-9227-495CFCBBB5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856783CF-27E2-4850-AA8A-271FD2AC951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{024B4532-7F17-405B-A065-366127F25B57}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" xr2:uid="{024B4532-7F17-405B-A065-366127F25B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +86,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,15 +805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>150020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>116679</xdr:rowOff>
+      <xdr:colOff>88108</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>566739</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -836,7 +849,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3388520" y="2650329"/>
+              <a:off x="3326608" y="2521742"/>
               <a:ext cx="4231481" cy="4131471"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -871,9 +884,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -911,7 +924,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1017,7 +1030,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1159,7 +1172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B57B7B-AA31-4412-9BCC-F78995911593}">
   <dimension ref="G9:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1182,7 +1195,7 @@
       <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1190,7 +1203,7 @@
       <c r="G10" t="s">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.156</v>
       </c>
     </row>
@@ -1198,7 +1211,7 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -1206,7 +1219,7 @@
       <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.16600000000000001</v>
       </c>
     </row>
@@ -1214,7 +1227,7 @@
       <c r="G13" t="s">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>4.7E-2</v>
       </c>
     </row>
@@ -1222,4 +1235,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>